--- a/biology/Zoologie/Cyathochromis_obliquidens/Cyathochromis_obliquidens.xlsx
+++ b/biology/Zoologie/Cyathochromis_obliquidens/Cyathochromis_obliquidens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyathochromis obliquidens est une espèce de poissons de la famille des Cichlidae et de l'ordre des Cichliformes. Cette espèce est endémique du lac Malawi en Afrique[1]. C'est la seule de son genre Cyathochromis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyathochromis obliquidens est une espèce de poissons de la famille des Cichlidae et de l'ordre des Cichliformes. Cette espèce est endémique du lac Malawi en Afrique. C'est la seule de son genre Cyathochromis.
 </t>
         </is>
       </c>
